--- a/data/ctrl.xlsx
+++ b/data/ctrl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="261">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +961,14 @@
   </si>
   <si>
     <t>ctrl -a clear -i 2 -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2446,36 +2454,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="77.75" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -2483,18 +2497,24 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -2502,26 +2522,35 @@
         <v>202</v>
       </c>
       <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -2529,10 +2558,13 @@
         <v>202</v>
       </c>
       <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -2540,10 +2572,13 @@
         <v>202</v>
       </c>
       <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -2551,41 +2586,53 @@
         <v>202</v>
       </c>
       <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>216</v>
       </c>
       <c r="B12" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>217</v>
       </c>
       <c r="B13" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -2593,10 +2640,13 @@
         <v>202</v>
       </c>
       <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -2604,18 +2654,24 @@
         <v>202</v>
       </c>
       <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -2623,40 +2679,52 @@
         <v>202</v>
       </c>
       <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>224</v>
       </c>
       <c r="B20" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -2664,10 +2732,13 @@
         <v>202</v>
       </c>
       <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -2675,10 +2746,13 @@
         <v>202</v>
       </c>
       <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -2686,10 +2760,13 @@
         <v>202</v>
       </c>
       <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -2697,103 +2774,133 @@
         <v>202</v>
       </c>
       <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>230</v>
       </c>
       <c r="B25" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>231</v>
       </c>
       <c r="B26" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>232</v>
       </c>
       <c r="B27" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>233</v>
       </c>
       <c r="B28" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>234</v>
       </c>
       <c r="B29" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>235</v>
       </c>
       <c r="B30" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>236</v>
       </c>
       <c r="B31" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>237</v>
       </c>
       <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>238</v>
       </c>
       <c r="B33" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -2801,10 +2908,13 @@
         <v>202</v>
       </c>
       <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -2812,10 +2922,13 @@
         <v>202</v>
       </c>
       <c r="C35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -2823,6 +2936,9 @@
         <v>202</v>
       </c>
       <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2834,63 +2950,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>248</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>249</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>250</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2902,87 +3037,114 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>251</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>253</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>256</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>257</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>258</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/ctrl.xlsx
+++ b/data/ctrl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_ctrl" sheetId="1" r:id="rId1"/>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameters of ctrl should be modified by "smartpollinginterval=1380,cacheflushinterval=2,VAAIsupport=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parameters of ctrl should be modified by "smartpollinginterval=1440,cacheflushinterval=1,VAAIsupport=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl -a mod -i 2 -s "smartpollinginterval=1380,cacheflushinterval=2,VAAIsupport=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl -a clear -i 1 -t watermark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,6 +961,14 @@
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl -a mod -i 2 -s "smartpollinginterval=1439,cacheflushinterval=2,VAAIsupport=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters of ctrl should be modified by "smartpollinginterval=1439,cacheflushinterval=2,VAAIsupport=enable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -2431,18 +2431,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2475,471 +2475,471 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
         <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
         <v>218</v>
-      </c>
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
         <v>202</v>
-      </c>
-      <c r="C36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2971,12 +2971,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3039,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3057,12 +3057,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>

--- a/data/ctrl.xlsx
+++ b/data/ctrl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list_ctrl" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="260">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,9 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Controller 1 information not accessible</t>
-  </si>
-  <si>
     <t>CtrlId:</t>
   </si>
   <si>
@@ -337,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LocalCtrlId: 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl -a mod -i 2 -s "alias=test_test_test_test_test_test_test_test_123456"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,6 +962,10 @@
   </si>
   <si>
     <t>parameters of ctrl should be modified by "smartpollinginterval=1439,cacheflushinterval=2,VAAIsupport=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalCtrlId: </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,7 +1318,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,13 +1416,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1439,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1525,211 +1522,211 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="AM2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="AN2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AO2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AP2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AQ2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AT2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AU2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AV2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AW2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AX2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AY2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AZ2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="BA2" t="s">
         <v>58</v>
       </c>
-      <c r="T2" t="s">
+      <c r="BB2" t="s">
         <v>60</v>
       </c>
-      <c r="U2" t="s">
+      <c r="BC2" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
+      <c r="BD2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" t="s">
+      <c r="BE2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" t="s">
+      <c r="BF2" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="BG2" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="BH2" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="BI2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="BJ2" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="BK2" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="BL2" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="BN2" t="s">
         <v>84</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="BO2" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="BP2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BR2" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BS2" t="s">
         <v>93</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.15">
@@ -1742,6 +1739,210 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1751,211 +1952,211 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="AM4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AN4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AO4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AP4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AQ4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AR4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AS4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AT4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AU4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AV4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AW4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AX4" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AY4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AZ4" t="s">
         <v>56</v>
       </c>
-      <c r="S4" t="s">
+      <c r="BA4" t="s">
         <v>58</v>
       </c>
-      <c r="T4" t="s">
+      <c r="BB4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" t="s">
+      <c r="BC4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
+      <c r="BD4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="s">
+      <c r="BE4" t="s">
         <v>66</v>
       </c>
-      <c r="X4" t="s">
+      <c r="BF4" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="BG4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="BH4" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="BI4" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BJ4" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="BK4" t="s">
         <v>78</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="BL4" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="BN4" t="s">
         <v>84</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="BO4" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="BP4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>89</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="BR4" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="BS4" t="s">
         <v>93</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1999,404 +2200,404 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
         <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>125</v>
       </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
         <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
         <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2431,18 +2632,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2475,471 +2676,471 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
         <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
         <v>216</v>
-      </c>
-      <c r="B15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
         <v>200</v>
-      </c>
-      <c r="C36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2971,12 +3172,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2987,7 +3188,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2998,7 +3199,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3009,7 +3210,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3020,7 +3221,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3057,12 +3258,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -3073,7 +3274,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3084,7 +3285,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3095,7 +3296,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -3106,7 +3307,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3117,7 +3318,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3128,7 +3329,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -3139,7 +3340,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
